--- a/Results/comparison.xlsx
+++ b/Results/comparison.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,7 +103,15 @@
       <family val="2"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,22 +136,34 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
+        <color theme="4" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="16" hidden="0" name="Headline 1" xfId="1"/>
+    <cellStyle builtinId="17" hidden="0" name="Headline 2" xfId="1"/>
+    <cellStyle builtinId="18" hidden="0" name="Headline 3" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -438,14 +458,86 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:BQ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="8"/>
+    <col customWidth="1" max="2" min="2" width="16"/>
+    <col customWidth="1" max="3" min="3" width="16"/>
+    <col customWidth="1" max="4" min="4" width="16"/>
+    <col customWidth="1" max="5" min="5" width="16"/>
+    <col customWidth="1" max="6" min="6" width="8"/>
+    <col customWidth="1" max="7" min="7" width="8"/>
+    <col customWidth="1" max="8" min="8" width="8"/>
+    <col customWidth="1" max="9" min="9" width="8"/>
+    <col customWidth="1" max="10" min="10" width="11"/>
+    <col customWidth="1" max="11" min="11" width="11"/>
+    <col customWidth="1" max="12" min="12" width="11"/>
+    <col customWidth="1" max="13" min="13" width="11"/>
+    <col customWidth="1" max="14" min="14" width="9"/>
+    <col customWidth="1" max="15" min="15" width="9"/>
+    <col customWidth="1" max="16" min="16" width="9"/>
+    <col customWidth="1" max="17" min="17" width="9"/>
+    <col customWidth="1" max="18" min="18" width="32"/>
+    <col customWidth="1" max="19" min="19" width="32"/>
+    <col customWidth="1" max="20" min="20" width="32"/>
+    <col customWidth="1" max="21" min="21" width="32"/>
+    <col customWidth="1" max="22" min="22" width="8"/>
+    <col customWidth="1" max="23" min="23" width="8"/>
+    <col customWidth="1" max="24" min="24" width="8"/>
+    <col customWidth="1" max="25" min="25" width="8"/>
+    <col customWidth="1" max="26" min="26" width="13"/>
+    <col customWidth="1" max="27" min="27" width="13"/>
+    <col customWidth="1" max="28" min="28" width="13"/>
+    <col customWidth="1" max="29" min="29" width="13"/>
+    <col customWidth="1" max="30" min="30" width="12"/>
+    <col customWidth="1" max="31" min="31" width="12"/>
+    <col customWidth="1" max="32" min="32" width="12"/>
+    <col customWidth="1" max="33" min="33" width="12"/>
+    <col customWidth="1" max="34" min="34" width="12"/>
+    <col customWidth="1" max="35" min="35" width="12"/>
+    <col customWidth="1" max="36" min="36" width="12"/>
+    <col customWidth="1" max="37" min="37" width="12"/>
+    <col customWidth="1" max="38" min="38" width="12"/>
+    <col customWidth="1" max="39" min="39" width="12"/>
+    <col customWidth="1" max="40" min="40" width="12"/>
+    <col customWidth="1" max="41" min="41" width="12"/>
+    <col customWidth="1" max="42" min="42" width="12"/>
+    <col customWidth="1" max="43" min="43" width="12"/>
+    <col customWidth="1" max="44" min="44" width="12"/>
+    <col customWidth="1" max="45" min="45" width="12"/>
+    <col customWidth="1" max="46" min="46" width="14"/>
+    <col customWidth="1" max="47" min="47" width="14"/>
+    <col customWidth="1" max="48" min="48" width="14"/>
+    <col customWidth="1" max="49" min="49" width="14"/>
+    <col customWidth="1" max="50" min="50" width="14"/>
+    <col customWidth="1" max="51" min="51" width="14"/>
+    <col customWidth="1" max="52" min="52" width="14"/>
+    <col customWidth="1" max="53" min="53" width="14"/>
+    <col customWidth="1" max="54" min="54" width="14"/>
+    <col customWidth="1" max="55" min="55" width="14"/>
+    <col customWidth="1" max="56" min="56" width="14"/>
+    <col customWidth="1" max="57" min="57" width="14"/>
+    <col customWidth="1" max="58" min="58" width="14"/>
+    <col customWidth="1" max="59" min="59" width="14"/>
+    <col customWidth="1" max="60" min="60" width="14"/>
+    <col customWidth="1" max="61" min="61" width="14"/>
+    <col customWidth="1" max="62" min="62" width="9"/>
+    <col customWidth="1" max="63" min="63" width="9"/>
+    <col customWidth="1" max="64" min="64" width="9"/>
+    <col customWidth="1" max="65" min="65" width="9"/>
+    <col customWidth="1" max="66" min="66" width="10"/>
+    <col customWidth="1" max="67" min="67" width="10"/>
+    <col customWidth="1" max="68" min="68" width="10"/>
+    <col customWidth="1" max="69" min="69" width="10"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,214 +746,214 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s"/>
-      <c r="B2" t="s">
+    <row r="2" spans="1:69">
+      <c r="A2" s="2" t="s"/>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:69">
       <c r="A3" t="n">
         <v>50</v>
       </c>
@@ -1064,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:69">
       <c r="A4" t="n">
         <v>50</v>
       </c>
@@ -1267,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:69">
       <c r="A5" t="n">
         <v>50</v>
       </c>
@@ -1470,7 +1562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:69">
       <c r="A6" t="n">
         <v>50</v>
       </c>
@@ -1673,7 +1765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:69">
       <c r="A7" t="n">
         <v>50</v>
       </c>
@@ -1876,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:69">
       <c r="A8" t="n">
         <v>100</v>
       </c>
@@ -2079,7 +2171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:69">
       <c r="A9" t="n">
         <v>100</v>
       </c>
@@ -2282,7 +2374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:69">
       <c r="A10" t="n">
         <v>100</v>
       </c>
@@ -2485,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:69">
       <c r="A11" t="n">
         <v>100</v>
       </c>
@@ -2688,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:69">
       <c r="A12" t="n">
         <v>100</v>
       </c>
@@ -2891,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:69">
       <c r="A13" t="n">
         <v>500</v>
       </c>
@@ -3094,7 +3186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:69">
       <c r="A14" t="n">
         <v>500</v>
       </c>
@@ -3297,7 +3389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:69">
       <c r="A15" t="n">
         <v>500</v>
       </c>
@@ -3500,7 +3592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:69">
       <c r="A16" t="n">
         <v>500</v>
       </c>
@@ -3703,7 +3795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:69">
       <c r="A17" t="n">
         <v>500</v>
       </c>
@@ -3906,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:69">
       <c r="A18" t="n">
         <v>1000</v>
       </c>
@@ -4109,7 +4201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:69">
       <c r="A19" t="n">
         <v>1000</v>
       </c>
@@ -4312,7 +4404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:69">
       <c r="A20" t="n">
         <v>1000</v>
       </c>
@@ -4515,7 +4607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:69">
       <c r="A21" t="n">
         <v>1000</v>
       </c>
@@ -4718,7 +4810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:69">
       <c r="A22" t="n">
         <v>1000</v>
       </c>
@@ -4921,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:69">
       <c r="A23" t="n">
         <v>2500</v>
       </c>
@@ -5124,7 +5216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:69">
       <c r="A24" t="n">
         <v>2500</v>
       </c>
@@ -5327,7 +5419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:69">
       <c r="A25" t="n">
         <v>2500</v>
       </c>
@@ -5530,7 +5622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:69">
       <c r="A26" t="n">
         <v>2500</v>
       </c>
@@ -5733,7 +5825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:69">
       <c r="A27" t="n">
         <v>2500</v>
       </c>
@@ -5936,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:69">
       <c r="A28" t="n">
         <v>5000</v>
       </c>
@@ -6139,7 +6231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:69">
       <c r="A29" t="n">
         <v>5000</v>
       </c>
@@ -6342,7 +6434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:69">
       <c r="A30" t="n">
         <v>5000</v>
       </c>
@@ -6545,7 +6637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:69">
       <c r="A31" t="n">
         <v>5000</v>
       </c>
@@ -6748,7 +6840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:69">
       <c r="A32" t="n">
         <v>5000</v>
       </c>
@@ -6951,7 +7043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:69">
       <c r="A33" t="n">
         <v>10000</v>
       </c>
@@ -7154,7 +7246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:69">
       <c r="A34" t="n">
         <v>10000</v>
       </c>
@@ -7357,7 +7449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:69">
       <c r="A35" t="n">
         <v>10000</v>
       </c>
@@ -7560,7 +7652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:69">
       <c r="A36" t="n">
         <v>10000</v>
       </c>
@@ -7763,7 +7855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:69">
       <c r="A37" t="n">
         <v>10000</v>
       </c>
@@ -7967,5 +8059,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>